--- a/MS/Integrate/PhO2SOPh/PhO2SOPh-v1-v5-n.xlsx
+++ b/MS/Integrate/PhO2SOPh/PhO2SOPh-v1-v5-n.xlsx
@@ -66,7 +66,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -87,6 +87,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3333FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -150,7 +157,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -163,18 +170,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -232,7 +243,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF3333FF"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -280,18 +291,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -299,21 +299,6 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'PhO2SOPh-v1-v5-n'!$V$3:$V$9</c:f>
@@ -376,17 +361,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34000782"/>
-        <c:axId val="71376898"/>
+        <c:axId val="57114784"/>
+        <c:axId val="42724503"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34000782"/>
+        <c:axId val="57114784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -399,21 +384,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71376898"/>
+        <c:crossAx val="42724503"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71376898"/>
+        <c:axId val="42724503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,7 +420,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -441,16 +433,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34000782"/>
+        <c:crossAx val="57114784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -472,17 +471,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
@@ -502,16 +490,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>521280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>489600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>156600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -519,8 +507,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4189320" y="1032840"/>
-        <a:ext cx="5766120" cy="3241440"/>
+        <a:off x="3289680" y="1711800"/>
+        <a:ext cx="5771880" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -541,29 +529,29 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="S13" activeCellId="0" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="5.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -577,7 +565,7 @@
       <c r="D1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="0" t="s">
@@ -589,7 +577,7 @@
       <c r="H1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="0" t="s">
@@ -601,7 +589,7 @@
       <c r="L1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="0" t="s">
@@ -613,7 +601,7 @@
       <c r="P1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="0" t="s">
@@ -625,12 +613,12 @@
       <c r="T1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -642,7 +630,7 @@
       <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
@@ -654,7 +642,7 @@
       <c r="H2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
@@ -666,7 +654,7 @@
       <c r="L2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
@@ -678,7 +666,7 @@
       <c r="P2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R2" s="0" t="s">
@@ -690,18 +678,18 @@
       <c r="T2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="V2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -713,7 +701,7 @@
       <c r="D3" s="0" t="n">
         <v>546.2</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>41156.2</v>
       </c>
       <c r="F3" s="0" t="n">
@@ -725,7 +713,7 @@
       <c r="H3" s="0" t="n">
         <v>676.3</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="2" t="n">
         <v>37367.9</v>
       </c>
       <c r="J3" s="0" t="n">
@@ -737,7 +725,7 @@
       <c r="L3" s="0" t="n">
         <v>949.1</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M3" s="2" t="n">
         <v>35216</v>
       </c>
       <c r="N3" s="0" t="n">
@@ -749,7 +737,7 @@
       <c r="P3" s="0" t="n">
         <v>952.6</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="2" t="n">
         <v>37187.7</v>
       </c>
       <c r="R3" s="0" t="n">
@@ -761,20 +749,20 @@
       <c r="T3" s="0" t="n">
         <v>449</v>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="U3" s="2" t="n">
         <v>37485.4</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="V3" s="1" t="n">
         <f aca="false">A3</f>
         <v>30</v>
       </c>
-      <c r="W3" s="3" t="n">
+      <c r="W3" s="4" t="n">
         <f aca="false">(E3+I3+M3+Q3+U3)/5</f>
         <v>37682.64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -786,7 +774,7 @@
       <c r="D4" s="0" t="n">
         <v>5414.7</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>107392.3</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -798,7 +786,7 @@
       <c r="H4" s="0" t="n">
         <v>5153</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="2" t="n">
         <v>98687.6</v>
       </c>
       <c r="J4" s="0" t="n">
@@ -810,7 +798,7 @@
       <c r="L4" s="0" t="n">
         <v>4036.8</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4" s="2" t="n">
         <v>96113.6</v>
       </c>
       <c r="N4" s="0" t="n">
@@ -822,7 +810,7 @@
       <c r="P4" s="0" t="n">
         <v>3546.5</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="2" t="n">
         <v>98246.3</v>
       </c>
       <c r="R4" s="0" t="n">
@@ -834,20 +822,20 @@
       <c r="T4" s="0" t="n">
         <v>1934.4</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="U4" s="2" t="n">
         <v>95847.6</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="V4" s="1" t="n">
         <f aca="false">A4</f>
         <v>60</v>
       </c>
-      <c r="W4" s="3" t="n">
+      <c r="W4" s="4" t="n">
         <f aca="false">(E4+I4+M4+Q4+U4)/5</f>
         <v>99257.48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -859,7 +847,7 @@
       <c r="D5" s="0" t="n">
         <v>12962.3</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>215130.9</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -871,7 +859,7 @@
       <c r="H5" s="0" t="n">
         <v>12593.5</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="2" t="n">
         <v>203582.7</v>
       </c>
       <c r="J5" s="0" t="n">
@@ -883,7 +871,7 @@
       <c r="L5" s="0" t="n">
         <v>8140.8</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="M5" s="2" t="n">
         <v>192810.2</v>
       </c>
       <c r="N5" s="0" t="n">
@@ -895,7 +883,7 @@
       <c r="P5" s="0" t="n">
         <v>7869.4</v>
       </c>
-      <c r="Q5" s="1" t="n">
+      <c r="Q5" s="2" t="n">
         <v>183951.1</v>
       </c>
       <c r="R5" s="0" t="n">
@@ -907,20 +895,20 @@
       <c r="T5" s="0" t="n">
         <v>8797.7</v>
       </c>
-      <c r="U5" s="1" t="n">
+      <c r="U5" s="2" t="n">
         <v>186383.9</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="V5" s="1" t="n">
         <f aca="false">A5</f>
         <v>150</v>
       </c>
-      <c r="W5" s="3" t="n">
+      <c r="W5" s="4" t="n">
         <f aca="false">(E5+I5+M5+Q5+U5)/5</f>
         <v>196371.76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>300</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -932,7 +920,7 @@
       <c r="D6" s="0" t="n">
         <v>11530.1</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>219498.5</v>
       </c>
       <c r="F6" s="0" t="n">
@@ -944,7 +932,7 @@
       <c r="H6" s="0" t="n">
         <v>12711.4</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="2" t="n">
         <v>196394.2</v>
       </c>
       <c r="J6" s="0" t="n">
@@ -956,7 +944,7 @@
       <c r="L6" s="0" t="n">
         <v>6146.9</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="M6" s="2" t="n">
         <v>171195.4</v>
       </c>
       <c r="N6" s="0" t="n">
@@ -968,7 +956,7 @@
       <c r="P6" s="0" t="n">
         <v>7606.9</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="Q6" s="2" t="n">
         <v>187695.1</v>
       </c>
       <c r="R6" s="0" t="n">
@@ -980,20 +968,20 @@
       <c r="T6" s="0" t="n">
         <v>8109.7</v>
       </c>
-      <c r="U6" s="1" t="n">
+      <c r="U6" s="2" t="n">
         <v>183799.1</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V6" s="1" t="n">
         <f aca="false">A6</f>
         <v>300</v>
       </c>
-      <c r="W6" s="3" t="n">
+      <c r="W6" s="4" t="n">
         <f aca="false">(E6+I6+M6+Q6+U6)/5</f>
         <v>191716.46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>450</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -1005,7 +993,7 @@
       <c r="D7" s="0" t="n">
         <v>23076</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>359525.3</v>
       </c>
       <c r="F7" s="0" t="n">
@@ -1017,7 +1005,7 @@
       <c r="H7" s="0" t="n">
         <v>21448.1</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="2" t="n">
         <v>310785.4</v>
       </c>
       <c r="J7" s="0" t="n">
@@ -1029,7 +1017,7 @@
       <c r="L7" s="0" t="n">
         <v>11477.5</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="M7" s="2" t="n">
         <v>342205.4</v>
       </c>
       <c r="N7" s="0" t="n">
@@ -1041,7 +1029,7 @@
       <c r="P7" s="0" t="n">
         <v>10873</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="Q7" s="2" t="n">
         <v>329301.8</v>
       </c>
       <c r="R7" s="0" t="n">
@@ -1053,20 +1041,20 @@
       <c r="T7" s="0" t="n">
         <v>11111.1</v>
       </c>
-      <c r="U7" s="1" t="n">
+      <c r="U7" s="2" t="n">
         <v>310796.9</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7" s="1" t="n">
         <f aca="false">A7</f>
         <v>450</v>
       </c>
-      <c r="W7" s="3" t="n">
+      <c r="W7" s="4" t="n">
         <f aca="false">(E7+I7+M7+Q7+U7)/5</f>
         <v>330522.96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>600</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -1078,7 +1066,7 @@
       <c r="D8" s="0" t="n">
         <v>23254.9</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>337782.2</v>
       </c>
       <c r="F8" s="0" t="n">
@@ -1090,7 +1078,7 @@
       <c r="H8" s="0" t="n">
         <v>19490.2</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="2" t="n">
         <v>306806.9</v>
       </c>
       <c r="J8" s="0" t="n">
@@ -1102,7 +1090,7 @@
       <c r="L8" s="0" t="n">
         <v>11921.1</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="2" t="n">
         <v>322962</v>
       </c>
       <c r="N8" s="0" t="n">
@@ -1114,7 +1102,7 @@
       <c r="P8" s="0" t="n">
         <v>10453.6</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="Q8" s="2" t="n">
         <v>329963.3</v>
       </c>
       <c r="R8" s="0" t="n">
@@ -1126,20 +1114,20 @@
       <c r="T8" s="0" t="n">
         <v>12586.5</v>
       </c>
-      <c r="U8" s="1" t="n">
+      <c r="U8" s="2" t="n">
         <v>324629.1</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8" s="1" t="n">
         <f aca="false">A8</f>
         <v>600</v>
       </c>
-      <c r="W8" s="3" t="n">
+      <c r="W8" s="4" t="n">
         <f aca="false">(E8+I8+M8+Q8+U8)/5</f>
         <v>324428.7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>750</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -1151,7 +1139,7 @@
       <c r="D9" s="0" t="n">
         <v>25843.8</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <v>393325.4</v>
       </c>
       <c r="F9" s="0" t="n">
@@ -1163,7 +1151,7 @@
       <c r="H9" s="0" t="n">
         <v>13418.5</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="2" t="n">
         <v>297030</v>
       </c>
       <c r="J9" s="0" t="n">
@@ -1175,7 +1163,7 @@
       <c r="L9" s="0" t="n">
         <v>12183.2</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="M9" s="2" t="n">
         <v>365319.8</v>
       </c>
       <c r="N9" s="0" t="n">
@@ -1187,7 +1175,7 @@
       <c r="P9" s="0" t="n">
         <v>12240.9</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="Q9" s="2" t="n">
         <v>345759</v>
       </c>
       <c r="R9" s="0" t="n">
@@ -1199,14 +1187,14 @@
       <c r="T9" s="0" t="n">
         <v>12646.6</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="U9" s="2" t="n">
         <v>363707.4</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9" s="1" t="n">
         <f aca="false">A9</f>
         <v>750</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="W9" s="4" t="n">
         <f aca="false">(E9+I9+M9+Q9+U9)/5</f>
         <v>353028.32</v>
       </c>
